--- a/实验结果/对比结果/算法结果汇总.xlsx
+++ b/实验结果/对比结果/算法结果汇总.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\系统默认\桌面\毕设\优化结果\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\系统默认\桌面\毕设\对比结果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4704DA47-D383-4F10-8646-3935FF19C960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10B0198-BC51-4C63-96A1-BC2E5CBB764F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,25 +40,7 @@
     <t>河北</t>
   </si>
   <si>
-    <t>P-M混合算法</t>
-  </si>
-  <si>
-    <t>粒子群算法</t>
-  </si>
-  <si>
-    <t>萤火虫算法</t>
-  </si>
-  <si>
-    <t>灰狼算法</t>
-  </si>
-  <si>
     <t>免疫算法</t>
-  </si>
-  <si>
-    <t>遗传算法</t>
-  </si>
-  <si>
-    <t>鲸群算法</t>
   </si>
   <si>
     <t>山东</t>
@@ -131,6 +113,24 @@
   </si>
   <si>
     <t>新疆</t>
+  </si>
+  <si>
+    <t>改进蚁群算法</t>
+  </si>
+  <si>
+    <t>GA-PSO混合算法</t>
+  </si>
+  <si>
+    <t>双种群灰狼算法</t>
+  </si>
+  <si>
+    <t>自适应遗传算法</t>
+  </si>
+  <si>
+    <t>改进鲸群算法</t>
+  </si>
+  <si>
+    <t>改进粒子群算法</t>
   </si>
 </sst>
 </file>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
-      <selection activeCell="D598" sqref="D598"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -537,7 +537,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -554,7 +554,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -571,7 +571,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -588,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -605,7 +605,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -622,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -639,7 +639,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -673,7 +673,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -690,7 +690,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -707,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -724,7 +724,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -741,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -758,7 +758,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -775,7 +775,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -792,7 +792,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>12</v>
@@ -809,7 +809,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -826,7 +826,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -843,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -860,7 +860,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>12</v>
@@ -877,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -894,7 +894,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -911,7 +911,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>12</v>
@@ -945,7 +945,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -962,7 +962,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -979,7 +979,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -996,7 +996,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>12</v>
@@ -1010,10 +1010,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -1044,10 +1044,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <v>10</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -1078,10 +1078,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -1095,10 +1095,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -1112,10 +1112,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <v>10</v>
@@ -1129,10 +1129,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C37">
         <v>12</v>
@@ -1146,10 +1146,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1163,10 +1163,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C39">
         <v>8</v>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C40">
         <v>10</v>
@@ -1197,10 +1197,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C41">
         <v>12</v>
@@ -1214,10 +1214,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1231,10 +1231,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C43">
         <v>8</v>
@@ -1248,10 +1248,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C44">
         <v>10</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C45">
         <v>12</v>
@@ -1282,10 +1282,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C47">
         <v>8</v>
@@ -1316,10 +1316,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C48">
         <v>10</v>
@@ -1333,10 +1333,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C49">
         <v>12</v>
@@ -1350,10 +1350,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C51">
         <v>8</v>
@@ -1384,10 +1384,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C52">
         <v>10</v>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C53">
         <v>12</v>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1435,10 +1435,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>8</v>
@@ -1452,10 +1452,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>10</v>
@@ -1469,10 +1469,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>12</v>
@@ -1486,10 +1486,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C59">
         <v>8</v>
@@ -1520,10 +1520,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C60">
         <v>10</v>
@@ -1537,10 +1537,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C61">
         <v>12</v>
@@ -1554,10 +1554,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1571,10 +1571,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C63">
         <v>8</v>
@@ -1588,10 +1588,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C64">
         <v>10</v>
@@ -1605,10 +1605,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C65">
         <v>12</v>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1639,10 +1639,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C67">
         <v>8</v>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C68">
         <v>10</v>
@@ -1673,10 +1673,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C69">
         <v>12</v>
@@ -1690,10 +1690,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1707,10 +1707,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C71">
         <v>8</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C72">
         <v>10</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C73">
         <v>12</v>
@@ -1758,10 +1758,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1775,10 +1775,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C75">
         <v>8</v>
@@ -1792,10 +1792,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C76">
         <v>10</v>
@@ -1809,10 +1809,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C77">
         <v>12</v>
@@ -1826,10 +1826,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C79">
         <v>8</v>
@@ -1860,10 +1860,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C80">
         <v>10</v>
@@ -1877,10 +1877,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C81">
         <v>12</v>
@@ -1894,10 +1894,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -1911,10 +1911,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>8</v>
@@ -1928,10 +1928,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>10</v>
@@ -1945,10 +1945,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>12</v>
@@ -1962,10 +1962,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C87">
         <v>8</v>
@@ -1996,10 +1996,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C88">
         <v>10</v>
@@ -2013,10 +2013,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C89">
         <v>12</v>
@@ -2030,10 +2030,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C90">
         <v>5</v>
@@ -2047,10 +2047,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C91">
         <v>8</v>
@@ -2064,10 +2064,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C92">
         <v>10</v>
@@ -2081,10 +2081,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C93">
         <v>12</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C94">
         <v>5</v>
@@ -2115,10 +2115,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C95">
         <v>8</v>
@@ -2132,10 +2132,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C96">
         <v>10</v>
@@ -2149,10 +2149,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C97">
         <v>12</v>
@@ -2166,10 +2166,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C98">
         <v>5</v>
@@ -2183,10 +2183,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C99">
         <v>8</v>
@@ -2200,10 +2200,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C100">
         <v>10</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C101">
         <v>12</v>
@@ -2234,10 +2234,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -2251,10 +2251,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C103">
         <v>8</v>
@@ -2268,10 +2268,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C104">
         <v>10</v>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C105">
         <v>12</v>
@@ -2302,10 +2302,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C106">
         <v>5</v>
@@ -2319,10 +2319,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C107">
         <v>8</v>
@@ -2336,10 +2336,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C108">
         <v>10</v>
@@ -2353,10 +2353,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -2370,10 +2370,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C110">
         <v>5</v>
@@ -2387,10 +2387,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C111">
         <v>8</v>
@@ -2404,10 +2404,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C112">
         <v>10</v>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C113">
         <v>12</v>
@@ -2438,10 +2438,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C114">
         <v>5</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C115">
         <v>8</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C116">
         <v>10</v>
@@ -2489,10 +2489,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C117">
         <v>12</v>
@@ -2506,10 +2506,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C118">
         <v>5</v>
@@ -2523,10 +2523,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C119">
         <v>8</v>
@@ -2540,10 +2540,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C120">
         <v>10</v>
@@ -2557,10 +2557,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C121">
         <v>12</v>
@@ -2574,10 +2574,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C122">
         <v>5</v>
@@ -2591,10 +2591,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C123">
         <v>8</v>
@@ -2608,10 +2608,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C124">
         <v>10</v>
@@ -2625,10 +2625,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C125">
         <v>12</v>
@@ -2642,10 +2642,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C126">
         <v>5</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C127">
         <v>8</v>
@@ -2676,10 +2676,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C128">
         <v>10</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C129">
         <v>12</v>
@@ -2710,10 +2710,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C130">
         <v>5</v>
@@ -2727,10 +2727,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C131">
         <v>8</v>
@@ -2744,10 +2744,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C132">
         <v>10</v>
@@ -2761,10 +2761,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C133">
         <v>12</v>
@@ -2778,10 +2778,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C134">
         <v>5</v>
@@ -2795,10 +2795,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C135">
         <v>8</v>
@@ -2812,10 +2812,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C136">
         <v>10</v>
@@ -2829,10 +2829,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C137">
         <v>12</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C138">
         <v>5</v>
@@ -2863,10 +2863,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C139">
         <v>8</v>
@@ -2880,10 +2880,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C140">
         <v>10</v>
@@ -2897,10 +2897,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C141">
         <v>12</v>
@@ -2914,10 +2914,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C142">
         <v>5</v>
@@ -2931,10 +2931,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C143">
         <v>8</v>
@@ -2948,10 +2948,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C144">
         <v>10</v>
@@ -2965,10 +2965,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C145">
         <v>12</v>
@@ -2982,10 +2982,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C146">
         <v>5</v>
@@ -2999,10 +2999,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C147">
         <v>8</v>
@@ -3016,10 +3016,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C148">
         <v>10</v>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C149">
         <v>12</v>
@@ -3050,10 +3050,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C150">
         <v>5</v>
@@ -3067,10 +3067,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C151">
         <v>8</v>
@@ -3084,10 +3084,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C152">
         <v>10</v>
@@ -3101,10 +3101,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C153">
         <v>12</v>
@@ -3118,10 +3118,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C154">
         <v>5</v>
@@ -3135,10 +3135,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C155">
         <v>8</v>
@@ -3152,10 +3152,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C156">
         <v>10</v>
@@ -3169,10 +3169,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C157">
         <v>12</v>
@@ -3186,10 +3186,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C158">
         <v>5</v>
@@ -3203,10 +3203,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C159">
         <v>8</v>
@@ -3220,10 +3220,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C160">
         <v>10</v>
@@ -3237,10 +3237,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C161">
         <v>12</v>
@@ -3254,10 +3254,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B162" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C162">
         <v>5</v>
@@ -3271,10 +3271,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B163" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C163">
         <v>8</v>
@@ -3288,10 +3288,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B164" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C164">
         <v>10</v>
@@ -3305,10 +3305,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C165">
         <v>12</v>
@@ -3322,10 +3322,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B166" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C166">
         <v>5</v>
@@ -3339,10 +3339,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C167">
         <v>8</v>
@@ -3356,10 +3356,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C168">
         <v>10</v>
@@ -3373,10 +3373,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C169">
         <v>12</v>
@@ -3390,10 +3390,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C170">
         <v>5</v>
@@ -3407,10 +3407,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C171">
         <v>8</v>
@@ -3424,10 +3424,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C172">
         <v>10</v>
@@ -3441,10 +3441,10 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C173">
         <v>12</v>
@@ -3458,10 +3458,10 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C174">
         <v>5</v>
@@ -3475,10 +3475,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C175">
         <v>8</v>
@@ -3492,10 +3492,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C176">
         <v>10</v>
@@ -3509,10 +3509,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C177">
         <v>12</v>
@@ -3526,10 +3526,10 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C178">
         <v>5</v>
@@ -3543,10 +3543,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C179">
         <v>8</v>
@@ -3560,10 +3560,10 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C180">
         <v>10</v>
@@ -3577,10 +3577,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C181">
         <v>12</v>
@@ -3594,10 +3594,10 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B182" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C182">
         <v>5</v>
@@ -3611,10 +3611,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B183" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C183">
         <v>8</v>
@@ -3628,10 +3628,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B184" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C184">
         <v>10</v>
@@ -3645,10 +3645,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B185" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C185">
         <v>12</v>
@@ -3662,10 +3662,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B186" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C186">
         <v>5</v>
@@ -3679,10 +3679,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B187" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C187">
         <v>8</v>
@@ -3696,10 +3696,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B188" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C188">
         <v>10</v>
@@ -3713,10 +3713,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B189" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C189">
         <v>12</v>
@@ -3730,10 +3730,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B190" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C190">
         <v>5</v>
@@ -3747,10 +3747,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B191" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C191">
         <v>8</v>
@@ -3764,10 +3764,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B192" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C192">
         <v>10</v>
@@ -3781,10 +3781,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B193" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C193">
         <v>12</v>
@@ -3798,10 +3798,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B194" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C194">
         <v>5</v>
@@ -3815,10 +3815,10 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B195" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C195">
         <v>8</v>
@@ -3832,10 +3832,10 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C196">
         <v>10</v>
@@ -3849,10 +3849,10 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B197" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C197">
         <v>12</v>
@@ -3866,10 +3866,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C198">
         <v>5</v>
@@ -3883,10 +3883,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C199">
         <v>8</v>
@@ -3900,10 +3900,10 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C200">
         <v>10</v>
@@ -3917,10 +3917,10 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C201">
         <v>12</v>
@@ -3934,10 +3934,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C202">
         <v>5</v>
@@ -3951,10 +3951,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C203">
         <v>8</v>
@@ -3968,10 +3968,10 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C204">
         <v>10</v>
@@ -3985,10 +3985,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C205">
         <v>12</v>
@@ -4002,10 +4002,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C206">
         <v>5</v>
@@ -4019,10 +4019,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C207">
         <v>8</v>
@@ -4036,10 +4036,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C208">
         <v>10</v>
@@ -4053,10 +4053,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C209">
         <v>12</v>
@@ -4070,10 +4070,10 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B210" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C210">
         <v>5</v>
@@ -4087,10 +4087,10 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B211" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C211">
         <v>8</v>
@@ -4104,10 +4104,10 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B212" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C212">
         <v>10</v>
@@ -4121,10 +4121,10 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B213" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C213">
         <v>12</v>
@@ -4138,10 +4138,10 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B214" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C214">
         <v>5</v>
@@ -4155,10 +4155,10 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B215" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C215">
         <v>8</v>
@@ -4172,10 +4172,10 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B216" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C216">
         <v>10</v>
@@ -4189,10 +4189,10 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B217" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C217">
         <v>12</v>
@@ -4206,10 +4206,10 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B218" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C218">
         <v>5</v>
@@ -4223,10 +4223,10 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B219" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C219">
         <v>8</v>
@@ -4240,10 +4240,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B220" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C220">
         <v>10</v>
@@ -4257,10 +4257,10 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B221" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C221">
         <v>12</v>
@@ -4274,10 +4274,10 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B222" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C222">
         <v>5</v>
@@ -4291,10 +4291,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B223" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C223">
         <v>8</v>
@@ -4308,10 +4308,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B224" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C224">
         <v>10</v>
@@ -4325,10 +4325,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B225" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C225">
         <v>12</v>
@@ -4342,10 +4342,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C226">
         <v>5</v>
@@ -4359,10 +4359,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C227">
         <v>8</v>
@@ -4376,10 +4376,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C228">
         <v>10</v>
@@ -4393,10 +4393,10 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C229">
         <v>12</v>
@@ -4410,10 +4410,10 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C230">
         <v>5</v>
@@ -4427,10 +4427,10 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C231">
         <v>8</v>
@@ -4444,10 +4444,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C232">
         <v>10</v>
@@ -4461,10 +4461,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C233">
         <v>12</v>
@@ -4478,10 +4478,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C234">
         <v>5</v>
@@ -4495,10 +4495,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C235">
         <v>8</v>
@@ -4512,10 +4512,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C236">
         <v>10</v>
@@ -4529,10 +4529,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C237">
         <v>12</v>
@@ -4546,10 +4546,10 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B238" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C238">
         <v>5</v>
@@ -4563,10 +4563,10 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B239" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C239">
         <v>8</v>
@@ -4580,10 +4580,10 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B240" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C240">
         <v>10</v>
@@ -4597,10 +4597,10 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B241" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C241">
         <v>12</v>
@@ -4614,10 +4614,10 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B242" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C242">
         <v>5</v>
@@ -4631,10 +4631,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B243" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C243">
         <v>8</v>
@@ -4648,10 +4648,10 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B244" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C244">
         <v>10</v>
@@ -4665,10 +4665,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B245" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C245">
         <v>12</v>
@@ -4682,10 +4682,10 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B246" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C246">
         <v>5</v>
@@ -4699,10 +4699,10 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B247" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C247">
         <v>8</v>
@@ -4716,10 +4716,10 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B248" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C248">
         <v>10</v>
@@ -4733,10 +4733,10 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B249" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C249">
         <v>12</v>
@@ -4750,10 +4750,10 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B250" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C250">
         <v>5</v>
@@ -4767,10 +4767,10 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B251" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C251">
         <v>8</v>
@@ -4784,10 +4784,10 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B252" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C252">
         <v>10</v>
@@ -4801,10 +4801,10 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B253" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C253">
         <v>12</v>
@@ -4818,10 +4818,10 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C254">
         <v>5</v>
@@ -4835,10 +4835,10 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C255">
         <v>8</v>
@@ -4852,10 +4852,10 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C256">
         <v>10</v>
@@ -4869,10 +4869,10 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C257">
         <v>12</v>
@@ -4886,10 +4886,10 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B258" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C258">
         <v>5</v>
@@ -4903,10 +4903,10 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B259" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C259">
         <v>8</v>
@@ -4920,10 +4920,10 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B260" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C260">
         <v>10</v>
@@ -4937,10 +4937,10 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B261" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C261">
         <v>12</v>
@@ -4954,10 +4954,10 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B262" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C262">
         <v>5</v>
@@ -4971,10 +4971,10 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B263" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C263">
         <v>8</v>
@@ -4988,10 +4988,10 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B264" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C264">
         <v>10</v>
@@ -5005,10 +5005,10 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B265" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C265">
         <v>12</v>
@@ -5022,10 +5022,10 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B266" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C266">
         <v>5</v>
@@ -5039,10 +5039,10 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B267" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C267">
         <v>8</v>
@@ -5056,10 +5056,10 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B268" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C268">
         <v>10</v>
@@ -5073,10 +5073,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B269" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C269">
         <v>12</v>
@@ -5090,10 +5090,10 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B270" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C270">
         <v>5</v>
@@ -5107,10 +5107,10 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B271" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C271">
         <v>8</v>
@@ -5124,10 +5124,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B272" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C272">
         <v>10</v>
@@ -5141,10 +5141,10 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B273" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C273">
         <v>12</v>
@@ -5158,10 +5158,10 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B274" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C274">
         <v>5</v>
@@ -5175,10 +5175,10 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B275" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C275">
         <v>8</v>
@@ -5192,10 +5192,10 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B276" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C276">
         <v>10</v>
@@ -5209,10 +5209,10 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B277" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C277">
         <v>12</v>
@@ -5226,10 +5226,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B278" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C278">
         <v>5</v>
@@ -5243,10 +5243,10 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B279" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C279">
         <v>8</v>
@@ -5260,10 +5260,10 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B280" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C280">
         <v>10</v>
@@ -5277,10 +5277,10 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B281" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C281">
         <v>12</v>
@@ -5294,10 +5294,10 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B282" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C282">
         <v>5</v>
@@ -5311,10 +5311,10 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B283" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C283">
         <v>8</v>
@@ -5328,10 +5328,10 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B284" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C284">
         <v>10</v>
@@ -5345,10 +5345,10 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B285" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C285">
         <v>12</v>
@@ -5362,10 +5362,10 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B286" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C286">
         <v>5</v>
@@ -5379,10 +5379,10 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B287" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C287">
         <v>8</v>
@@ -5396,10 +5396,10 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B288" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C288">
         <v>10</v>
@@ -5413,10 +5413,10 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B289" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C289">
         <v>12</v>
@@ -5430,10 +5430,10 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B290" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C290">
         <v>5</v>
@@ -5447,10 +5447,10 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B291" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C291">
         <v>8</v>
@@ -5464,10 +5464,10 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B292" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C292">
         <v>10</v>
@@ -5481,10 +5481,10 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B293" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C293">
         <v>12</v>
@@ -5498,10 +5498,10 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B294" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C294">
         <v>5</v>
@@ -5515,10 +5515,10 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B295" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C295">
         <v>8</v>
@@ -5532,10 +5532,10 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B296" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C296">
         <v>10</v>
@@ -5549,10 +5549,10 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B297" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C297">
         <v>12</v>
@@ -5566,10 +5566,10 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B298" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C298">
         <v>5</v>
@@ -5583,10 +5583,10 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B299" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C299">
         <v>8</v>
@@ -5600,10 +5600,10 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B300" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C300">
         <v>10</v>
@@ -5617,10 +5617,10 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B301" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C301">
         <v>12</v>
@@ -5634,10 +5634,10 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B302" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C302">
         <v>5</v>
@@ -5651,10 +5651,10 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B303" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C303">
         <v>8</v>
@@ -5668,10 +5668,10 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B304" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C304">
         <v>10</v>
@@ -5685,10 +5685,10 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B305" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C305">
         <v>12</v>
@@ -5702,10 +5702,10 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B306" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C306">
         <v>5</v>
@@ -5719,10 +5719,10 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B307" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C307">
         <v>8</v>
@@ -5736,10 +5736,10 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B308" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C308">
         <v>10</v>
@@ -5753,10 +5753,10 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B309" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C309">
         <v>12</v>
@@ -5770,10 +5770,10 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B310" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C310">
         <v>5</v>
@@ -5787,10 +5787,10 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B311" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C311">
         <v>8</v>
@@ -5804,10 +5804,10 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B312" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C312">
         <v>10</v>
@@ -5821,10 +5821,10 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B313" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C313">
         <v>12</v>
@@ -5838,10 +5838,10 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B314" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C314">
         <v>5</v>
@@ -5855,10 +5855,10 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B315" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C315">
         <v>8</v>
@@ -5872,10 +5872,10 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B316" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C316">
         <v>10</v>
@@ -5889,10 +5889,10 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B317" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C317">
         <v>12</v>
@@ -5906,10 +5906,10 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B318" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C318">
         <v>5</v>
@@ -5923,10 +5923,10 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B319" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C319">
         <v>8</v>
@@ -5940,10 +5940,10 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B320" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C320">
         <v>10</v>
@@ -5957,10 +5957,10 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B321" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C321">
         <v>12</v>
@@ -5974,10 +5974,10 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B322" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C322">
         <v>5</v>
@@ -5991,10 +5991,10 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B323" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C323">
         <v>8</v>
@@ -6008,10 +6008,10 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B324" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C324">
         <v>10</v>
@@ -6025,10 +6025,10 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B325" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C325">
         <v>12</v>
@@ -6042,10 +6042,10 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B326" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C326">
         <v>5</v>
@@ -6059,10 +6059,10 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B327" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C327">
         <v>8</v>
@@ -6076,10 +6076,10 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B328" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C328">
         <v>10</v>
@@ -6093,10 +6093,10 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B329" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C329">
         <v>12</v>
@@ -6110,10 +6110,10 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B330" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C330">
         <v>5</v>
@@ -6127,10 +6127,10 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B331" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C331">
         <v>8</v>
@@ -6144,10 +6144,10 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B332" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C332">
         <v>10</v>
@@ -6161,10 +6161,10 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B333" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C333">
         <v>12</v>
@@ -6178,10 +6178,10 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B334" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C334">
         <v>5</v>
@@ -6195,10 +6195,10 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B335" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C335">
         <v>8</v>
@@ -6212,10 +6212,10 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B336" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C336">
         <v>10</v>
@@ -6229,10 +6229,10 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B337" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C337">
         <v>12</v>
@@ -6246,10 +6246,10 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B338" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C338">
         <v>5</v>
@@ -6263,10 +6263,10 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B339" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C339">
         <v>8</v>
@@ -6280,10 +6280,10 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B340" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C340">
         <v>10</v>
@@ -6297,10 +6297,10 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B341" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C341">
         <v>12</v>
@@ -6314,10 +6314,10 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B342" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C342">
         <v>5</v>
@@ -6331,10 +6331,10 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B343" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C343">
         <v>8</v>
@@ -6348,10 +6348,10 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B344" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C344">
         <v>10</v>
@@ -6365,10 +6365,10 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B345" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C345">
         <v>12</v>
@@ -6382,10 +6382,10 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B346" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C346">
         <v>5</v>
@@ -6399,10 +6399,10 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B347" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C347">
         <v>8</v>
@@ -6416,10 +6416,10 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B348" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C348">
         <v>10</v>
@@ -6433,10 +6433,10 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B349" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C349">
         <v>12</v>
@@ -6450,10 +6450,10 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B350" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C350">
         <v>5</v>
@@ -6467,10 +6467,10 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B351" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C351">
         <v>8</v>
@@ -6484,10 +6484,10 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B352" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C352">
         <v>10</v>
@@ -6501,10 +6501,10 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B353" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C353">
         <v>12</v>
@@ -6518,10 +6518,10 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B354" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C354">
         <v>5</v>
@@ -6535,10 +6535,10 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B355" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C355">
         <v>8</v>
@@ -6552,10 +6552,10 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B356" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C356">
         <v>10</v>
@@ -6569,10 +6569,10 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B357" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C357">
         <v>12</v>
@@ -6586,10 +6586,10 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B358" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C358">
         <v>5</v>
@@ -6603,10 +6603,10 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B359" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C359">
         <v>8</v>
@@ -6620,10 +6620,10 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B360" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C360">
         <v>10</v>
@@ -6637,10 +6637,10 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B361" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C361">
         <v>12</v>
@@ -6654,10 +6654,10 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B362" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C362">
         <v>5</v>
@@ -6671,10 +6671,10 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B363" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C363">
         <v>8</v>
@@ -6688,10 +6688,10 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B364" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C364">
         <v>10</v>
@@ -6705,10 +6705,10 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B365" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C365">
         <v>12</v>
@@ -6722,10 +6722,10 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B366" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C366">
         <v>5</v>
@@ -6739,10 +6739,10 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B367" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C367">
         <v>8</v>
@@ -6756,10 +6756,10 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B368" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C368">
         <v>10</v>
@@ -6773,10 +6773,10 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B369" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C369">
         <v>12</v>
@@ -6790,10 +6790,10 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B370" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C370">
         <v>5</v>
@@ -6807,10 +6807,10 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B371" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C371">
         <v>8</v>
@@ -6824,10 +6824,10 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B372" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C372">
         <v>10</v>
@@ -6841,10 +6841,10 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B373" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C373">
         <v>12</v>
@@ -6858,10 +6858,10 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B374" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C374">
         <v>5</v>
@@ -6875,10 +6875,10 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B375" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C375">
         <v>8</v>
@@ -6892,10 +6892,10 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B376" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C376">
         <v>10</v>
@@ -6909,10 +6909,10 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B377" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C377">
         <v>12</v>
@@ -6926,10 +6926,10 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B378" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C378">
         <v>5</v>
@@ -6943,10 +6943,10 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B379" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C379">
         <v>8</v>
@@ -6960,10 +6960,10 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B380" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C380">
         <v>10</v>
@@ -6977,10 +6977,10 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B381" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C381">
         <v>12</v>
@@ -6994,10 +6994,10 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B382" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C382">
         <v>5</v>
@@ -7011,10 +7011,10 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B383" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C383">
         <v>8</v>
@@ -7028,10 +7028,10 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B384" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C384">
         <v>10</v>
@@ -7045,10 +7045,10 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B385" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C385">
         <v>12</v>
@@ -7062,10 +7062,10 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B386" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C386">
         <v>5</v>
@@ -7079,10 +7079,10 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B387" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C387">
         <v>8</v>
@@ -7096,10 +7096,10 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B388" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C388">
         <v>10</v>
@@ -7113,10 +7113,10 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B389" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C389">
         <v>12</v>
@@ -7130,10 +7130,10 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B390" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C390">
         <v>5</v>
@@ -7147,10 +7147,10 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B391" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C391">
         <v>8</v>
@@ -7164,10 +7164,10 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B392" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C392">
         <v>10</v>
@@ -7181,10 +7181,10 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B393" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C393">
         <v>12</v>
@@ -7198,10 +7198,10 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B394" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C394">
         <v>5</v>
@@ -7215,10 +7215,10 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B395" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C395">
         <v>8</v>
@@ -7232,10 +7232,10 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B396" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C396">
         <v>10</v>
@@ -7249,10 +7249,10 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B397" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C397">
         <v>12</v>
@@ -7266,10 +7266,10 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B398" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C398">
         <v>5</v>
@@ -7283,10 +7283,10 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B399" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C399">
         <v>8</v>
@@ -7300,10 +7300,10 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B400" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C400">
         <v>10</v>
@@ -7317,10 +7317,10 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B401" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C401">
         <v>12</v>
@@ -7334,10 +7334,10 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B402" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C402">
         <v>5</v>
@@ -7351,10 +7351,10 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B403" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C403">
         <v>8</v>
@@ -7368,10 +7368,10 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B404" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C404">
         <v>10</v>
@@ -7385,10 +7385,10 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B405" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C405">
         <v>12</v>
@@ -7402,10 +7402,10 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B406" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C406">
         <v>5</v>
@@ -7419,10 +7419,10 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B407" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C407">
         <v>8</v>
@@ -7436,10 +7436,10 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B408" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C408">
         <v>10</v>
@@ -7453,10 +7453,10 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B409" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C409">
         <v>12</v>
@@ -7470,10 +7470,10 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B410" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C410">
         <v>5</v>
@@ -7487,10 +7487,10 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B411" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C411">
         <v>8</v>
@@ -7504,10 +7504,10 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B412" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C412">
         <v>10</v>
@@ -7521,10 +7521,10 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B413" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C413">
         <v>12</v>
@@ -7538,10 +7538,10 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B414" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C414">
         <v>5</v>
@@ -7555,10 +7555,10 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B415" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C415">
         <v>8</v>
@@ -7572,10 +7572,10 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B416" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C416">
         <v>10</v>
@@ -7589,10 +7589,10 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B417" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C417">
         <v>12</v>
@@ -7606,10 +7606,10 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B418" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C418">
         <v>5</v>
@@ -7623,10 +7623,10 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B419" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C419">
         <v>8</v>
@@ -7640,10 +7640,10 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B420" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C420">
         <v>10</v>
@@ -7657,10 +7657,10 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B421" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C421">
         <v>12</v>
@@ -7674,10 +7674,10 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B422" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C422">
         <v>5</v>
@@ -7691,10 +7691,10 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B423" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C423">
         <v>8</v>
@@ -7708,10 +7708,10 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B424" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C424">
         <v>10</v>
@@ -7725,10 +7725,10 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B425" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C425">
         <v>12</v>
@@ -7742,10 +7742,10 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B426" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C426">
         <v>5</v>
@@ -7759,10 +7759,10 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B427" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C427">
         <v>8</v>
@@ -7776,10 +7776,10 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B428" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C428">
         <v>10</v>
@@ -7793,10 +7793,10 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B429" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C429">
         <v>12</v>
@@ -7810,10 +7810,10 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B430" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C430">
         <v>5</v>
@@ -7827,10 +7827,10 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B431" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C431">
         <v>8</v>
@@ -7844,10 +7844,10 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B432" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C432">
         <v>10</v>
@@ -7861,10 +7861,10 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B433" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C433">
         <v>12</v>
@@ -7878,10 +7878,10 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B434" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C434">
         <v>5</v>
@@ -7895,10 +7895,10 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B435" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C435">
         <v>8</v>
@@ -7912,10 +7912,10 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B436" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C436">
         <v>10</v>
@@ -7929,10 +7929,10 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B437" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C437">
         <v>12</v>
@@ -7946,10 +7946,10 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B438" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C438">
         <v>5</v>
@@ -7963,10 +7963,10 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B439" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C439">
         <v>8</v>
@@ -7980,10 +7980,10 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B440" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C440">
         <v>10</v>
@@ -7997,10 +7997,10 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B441" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C441">
         <v>12</v>
@@ -8014,10 +8014,10 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B442" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C442">
         <v>5</v>
@@ -8031,10 +8031,10 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B443" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C443">
         <v>8</v>
@@ -8048,10 +8048,10 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B444" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C444">
         <v>10</v>
@@ -8065,10 +8065,10 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B445" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C445">
         <v>12</v>
@@ -8082,10 +8082,10 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B446" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C446">
         <v>5</v>
@@ -8099,10 +8099,10 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B447" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C447">
         <v>8</v>
@@ -8116,10 +8116,10 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B448" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C448">
         <v>10</v>
@@ -8133,10 +8133,10 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B449" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C449">
         <v>12</v>
@@ -8150,10 +8150,10 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B450" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C450">
         <v>5</v>
@@ -8167,10 +8167,10 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B451" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C451">
         <v>8</v>
@@ -8184,10 +8184,10 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B452" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C452">
         <v>10</v>
@@ -8201,10 +8201,10 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B453" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C453">
         <v>12</v>
@@ -8218,10 +8218,10 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B454" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C454">
         <v>5</v>
@@ -8235,10 +8235,10 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B455" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C455">
         <v>8</v>
@@ -8252,10 +8252,10 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B456" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C456">
         <v>10</v>
@@ -8269,10 +8269,10 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B457" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C457">
         <v>12</v>
@@ -8286,10 +8286,10 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B458" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C458">
         <v>5</v>
@@ -8303,10 +8303,10 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B459" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C459">
         <v>8</v>
@@ -8320,10 +8320,10 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B460" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C460">
         <v>10</v>
@@ -8337,10 +8337,10 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B461" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C461">
         <v>12</v>
@@ -8354,10 +8354,10 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B462" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C462">
         <v>5</v>
@@ -8371,10 +8371,10 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B463" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C463">
         <v>8</v>
@@ -8388,10 +8388,10 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B464" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C464">
         <v>10</v>
@@ -8405,10 +8405,10 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B465" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C465">
         <v>12</v>
@@ -8422,10 +8422,10 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B466" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C466">
         <v>5</v>
@@ -8439,10 +8439,10 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B467" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C467">
         <v>8</v>
@@ -8456,10 +8456,10 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B468" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C468">
         <v>10</v>
@@ -8473,10 +8473,10 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B469" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C469">
         <v>12</v>
@@ -8490,10 +8490,10 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B470" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C470">
         <v>5</v>
@@ -8507,10 +8507,10 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B471" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C471">
         <v>8</v>
@@ -8524,10 +8524,10 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B472" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C472">
         <v>10</v>
@@ -8541,10 +8541,10 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B473" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C473">
         <v>12</v>
@@ -8558,10 +8558,10 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B474" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C474">
         <v>5</v>
@@ -8575,10 +8575,10 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B475" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C475">
         <v>8</v>
@@ -8592,10 +8592,10 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B476" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C476">
         <v>10</v>
@@ -8609,10 +8609,10 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B477" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C477">
         <v>12</v>
@@ -8626,10 +8626,10 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B478" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C478">
         <v>5</v>
@@ -8643,10 +8643,10 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B479" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C479">
         <v>8</v>
@@ -8660,10 +8660,10 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B480" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C480">
         <v>10</v>
@@ -8677,10 +8677,10 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B481" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C481">
         <v>12</v>
@@ -8694,10 +8694,10 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B482" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C482">
         <v>5</v>
@@ -8711,10 +8711,10 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B483" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C483">
         <v>8</v>
@@ -8728,10 +8728,10 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B484" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C484">
         <v>10</v>
@@ -8745,10 +8745,10 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B485" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C485">
         <v>12</v>
@@ -8762,10 +8762,10 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B486" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C486">
         <v>5</v>
@@ -8779,10 +8779,10 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B487" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C487">
         <v>8</v>
@@ -8796,10 +8796,10 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B488" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C488">
         <v>10</v>
@@ -8813,10 +8813,10 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B489" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C489">
         <v>12</v>
@@ -8830,10 +8830,10 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B490" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C490">
         <v>5</v>
@@ -8847,10 +8847,10 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B491" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C491">
         <v>8</v>
@@ -8864,10 +8864,10 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B492" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C492">
         <v>10</v>
@@ -8881,10 +8881,10 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B493" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C493">
         <v>12</v>
@@ -8898,10 +8898,10 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B494" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C494">
         <v>5</v>
@@ -8915,10 +8915,10 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B495" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C495">
         <v>8</v>
@@ -8932,10 +8932,10 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B496" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C496">
         <v>10</v>
@@ -8949,10 +8949,10 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B497" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C497">
         <v>12</v>
@@ -8966,10 +8966,10 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B498" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C498">
         <v>5</v>
@@ -8983,10 +8983,10 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B499" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C499">
         <v>8</v>
@@ -9000,10 +9000,10 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B500" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C500">
         <v>10</v>
@@ -9017,10 +9017,10 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B501" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C501">
         <v>12</v>
@@ -9034,10 +9034,10 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B502" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C502">
         <v>5</v>
@@ -9051,10 +9051,10 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B503" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C503">
         <v>8</v>
@@ -9068,10 +9068,10 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B504" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C504">
         <v>10</v>
@@ -9085,10 +9085,10 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B505" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C505">
         <v>12</v>
@@ -9102,10 +9102,10 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B506" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C506">
         <v>5</v>
@@ -9119,10 +9119,10 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B507" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C507">
         <v>8</v>
@@ -9136,10 +9136,10 @@
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B508" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C508">
         <v>10</v>
@@ -9153,10 +9153,10 @@
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B509" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C509">
         <v>12</v>
@@ -9170,10 +9170,10 @@
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B510" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C510">
         <v>5</v>
@@ -9187,10 +9187,10 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B511" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C511">
         <v>8</v>
@@ -9204,10 +9204,10 @@
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B512" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C512">
         <v>10</v>
@@ -9221,10 +9221,10 @@
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B513" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C513">
         <v>12</v>
@@ -9238,10 +9238,10 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B514" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C514">
         <v>5</v>
@@ -9255,10 +9255,10 @@
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B515" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C515">
         <v>8</v>
@@ -9272,10 +9272,10 @@
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B516" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C516">
         <v>10</v>
@@ -9289,10 +9289,10 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B517" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C517">
         <v>12</v>
@@ -9306,10 +9306,10 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B518" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C518">
         <v>5</v>
@@ -9323,10 +9323,10 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B519" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C519">
         <v>8</v>
@@ -9340,10 +9340,10 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B520" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C520">
         <v>10</v>
@@ -9357,10 +9357,10 @@
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B521" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C521">
         <v>12</v>
@@ -9374,10 +9374,10 @@
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B522" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C522">
         <v>5</v>
@@ -9391,10 +9391,10 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B523" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C523">
         <v>8</v>
@@ -9408,10 +9408,10 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B524" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C524">
         <v>10</v>
@@ -9425,10 +9425,10 @@
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B525" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C525">
         <v>12</v>
@@ -9442,10 +9442,10 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B526" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C526">
         <v>5</v>
@@ -9459,10 +9459,10 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B527" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C527">
         <v>8</v>
@@ -9476,10 +9476,10 @@
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B528" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C528">
         <v>10</v>
@@ -9493,10 +9493,10 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B529" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C529">
         <v>12</v>
@@ -9510,10 +9510,10 @@
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B530" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C530">
         <v>5</v>
@@ -9527,10 +9527,10 @@
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B531" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C531">
         <v>8</v>
@@ -9544,10 +9544,10 @@
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B532" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C532">
         <v>10</v>
@@ -9561,10 +9561,10 @@
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B533" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C533">
         <v>12</v>
@@ -9578,10 +9578,10 @@
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
+        <v>25</v>
+      </c>
+      <c r="B534" t="s">
         <v>31</v>
-      </c>
-      <c r="B534" t="s">
-        <v>6</v>
       </c>
       <c r="C534">
         <v>5</v>
@@ -9595,10 +9595,10 @@
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
+        <v>25</v>
+      </c>
+      <c r="B535" t="s">
         <v>31</v>
-      </c>
-      <c r="B535" t="s">
-        <v>6</v>
       </c>
       <c r="C535">
         <v>8</v>
@@ -9612,10 +9612,10 @@
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
+        <v>25</v>
+      </c>
+      <c r="B536" t="s">
         <v>31</v>
-      </c>
-      <c r="B536" t="s">
-        <v>6</v>
       </c>
       <c r="C536">
         <v>10</v>
@@ -9629,10 +9629,10 @@
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
+        <v>25</v>
+      </c>
+      <c r="B537" t="s">
         <v>31</v>
-      </c>
-      <c r="B537" t="s">
-        <v>6</v>
       </c>
       <c r="C537">
         <v>12</v>
@@ -9646,10 +9646,10 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B538" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C538">
         <v>5</v>
@@ -9663,10 +9663,10 @@
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B539" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C539">
         <v>8</v>
@@ -9680,10 +9680,10 @@
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B540" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C540">
         <v>10</v>
@@ -9697,10 +9697,10 @@
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B541" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C541">
         <v>12</v>
@@ -9714,10 +9714,10 @@
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B542" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C542">
         <v>5</v>
@@ -9731,10 +9731,10 @@
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B543" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C543">
         <v>8</v>
@@ -9748,10 +9748,10 @@
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B544" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C544">
         <v>10</v>
@@ -9765,10 +9765,10 @@
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B545" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C545">
         <v>12</v>
@@ -9782,10 +9782,10 @@
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B546" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C546">
         <v>5</v>
@@ -9799,10 +9799,10 @@
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B547" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C547">
         <v>8</v>
@@ -9816,10 +9816,10 @@
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B548" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C548">
         <v>10</v>
@@ -9833,10 +9833,10 @@
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B549" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C549">
         <v>12</v>
@@ -9850,10 +9850,10 @@
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B550" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C550">
         <v>5</v>
@@ -9867,10 +9867,10 @@
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B551" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C551">
         <v>8</v>
@@ -9884,10 +9884,10 @@
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B552" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C552">
         <v>10</v>
@@ -9901,10 +9901,10 @@
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B553" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C553">
         <v>12</v>
@@ -9918,10 +9918,10 @@
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B554" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C554">
         <v>5</v>
@@ -9935,10 +9935,10 @@
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B555" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C555">
         <v>8</v>
@@ -9952,10 +9952,10 @@
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B556" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C556">
         <v>10</v>
@@ -9969,10 +9969,10 @@
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B557" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C557">
         <v>12</v>
@@ -9986,10 +9986,10 @@
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B558" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C558">
         <v>5</v>
@@ -10003,10 +10003,10 @@
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B559" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C559">
         <v>8</v>
@@ -10020,10 +10020,10 @@
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B560" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C560">
         <v>10</v>
@@ -10037,10 +10037,10 @@
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B561" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C561">
         <v>12</v>
@@ -10054,10 +10054,10 @@
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B562" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C562">
         <v>5</v>
@@ -10071,10 +10071,10 @@
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B563" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C563">
         <v>8</v>
@@ -10088,10 +10088,10 @@
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B564" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C564">
         <v>10</v>
@@ -10105,10 +10105,10 @@
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B565" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C565">
         <v>12</v>
@@ -10122,10 +10122,10 @@
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B566" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C566">
         <v>5</v>
@@ -10139,10 +10139,10 @@
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B567" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C567">
         <v>8</v>
@@ -10156,10 +10156,10 @@
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B568" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C568">
         <v>10</v>
@@ -10173,10 +10173,10 @@
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B569" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C569">
         <v>12</v>
@@ -10190,10 +10190,10 @@
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
+        <v>26</v>
+      </c>
+      <c r="B570" t="s">
         <v>32</v>
-      </c>
-      <c r="B570" t="s">
-        <v>8</v>
       </c>
       <c r="C570">
         <v>5</v>
@@ -10207,10 +10207,10 @@
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
+        <v>26</v>
+      </c>
+      <c r="B571" t="s">
         <v>32</v>
-      </c>
-      <c r="B571" t="s">
-        <v>8</v>
       </c>
       <c r="C571">
         <v>8</v>
@@ -10224,10 +10224,10 @@
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
+        <v>26</v>
+      </c>
+      <c r="B572" t="s">
         <v>32</v>
-      </c>
-      <c r="B572" t="s">
-        <v>8</v>
       </c>
       <c r="C572">
         <v>10</v>
@@ -10241,10 +10241,10 @@
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
+        <v>26</v>
+      </c>
+      <c r="B573" t="s">
         <v>32</v>
-      </c>
-      <c r="B573" t="s">
-        <v>8</v>
       </c>
       <c r="C573">
         <v>12</v>
@@ -10258,10 +10258,10 @@
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B574" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C574">
         <v>5</v>
@@ -10275,10 +10275,10 @@
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B575" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C575">
         <v>8</v>
@@ -10292,10 +10292,10 @@
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B576" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C576">
         <v>10</v>
@@ -10309,10 +10309,10 @@
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B577" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C577">
         <v>12</v>
@@ -10326,10 +10326,10 @@
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B578" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C578">
         <v>5</v>
@@ -10343,10 +10343,10 @@
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B579" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C579">
         <v>8</v>
@@ -10360,10 +10360,10 @@
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B580" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C580">
         <v>10</v>
@@ -10377,10 +10377,10 @@
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B581" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C581">
         <v>12</v>
@@ -10394,10 +10394,10 @@
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B582" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C582">
         <v>5</v>
@@ -10411,10 +10411,10 @@
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B583" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C583">
         <v>8</v>
@@ -10428,10 +10428,10 @@
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B584" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C584">
         <v>10</v>
@@ -10445,10 +10445,10 @@
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B585" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C585">
         <v>12</v>
@@ -10462,10 +10462,10 @@
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B586" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C586">
         <v>5</v>
@@ -10479,10 +10479,10 @@
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B587" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C587">
         <v>8</v>
@@ -10496,10 +10496,10 @@
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B588" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C588">
         <v>10</v>
@@ -10513,10 +10513,10 @@
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B589" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C589">
         <v>12</v>
@@ -10530,10 +10530,10 @@
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B590" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C590">
         <v>5</v>
@@ -10547,10 +10547,10 @@
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B591" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C591">
         <v>8</v>
@@ -10564,10 +10564,10 @@
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B592" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C592">
         <v>10</v>
@@ -10581,10 +10581,10 @@
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B593" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C593">
         <v>12</v>
@@ -10598,10 +10598,10 @@
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B594" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C594">
         <v>5</v>
@@ -10615,10 +10615,10 @@
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B595" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C595">
         <v>8</v>
@@ -10632,10 +10632,10 @@
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B596" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C596">
         <v>10</v>
@@ -10649,10 +10649,10 @@
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B597" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C597">
         <v>12</v>
@@ -10666,10 +10666,10 @@
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B598" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C598">
         <v>5</v>
@@ -10683,10 +10683,10 @@
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B599" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C599">
         <v>8</v>
@@ -10700,10 +10700,10 @@
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B600" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C600">
         <v>10</v>
@@ -10717,10 +10717,10 @@
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B601" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C601">
         <v>12</v>
@@ -10734,10 +10734,10 @@
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
+        <v>27</v>
+      </c>
+      <c r="B602" t="s">
         <v>33</v>
-      </c>
-      <c r="B602" t="s">
-        <v>9</v>
       </c>
       <c r="C602">
         <v>5</v>
@@ -10751,10 +10751,10 @@
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
+        <v>27</v>
+      </c>
+      <c r="B603" t="s">
         <v>33</v>
-      </c>
-      <c r="B603" t="s">
-        <v>9</v>
       </c>
       <c r="C603">
         <v>8</v>
@@ -10768,10 +10768,10 @@
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
+        <v>27</v>
+      </c>
+      <c r="B604" t="s">
         <v>33</v>
-      </c>
-      <c r="B604" t="s">
-        <v>9</v>
       </c>
       <c r="C604">
         <v>10</v>
@@ -10785,10 +10785,10 @@
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
+        <v>27</v>
+      </c>
+      <c r="B605" t="s">
         <v>33</v>
-      </c>
-      <c r="B605" t="s">
-        <v>9</v>
       </c>
       <c r="C605">
         <v>12</v>
@@ -10802,10 +10802,10 @@
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B606" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C606">
         <v>5</v>
@@ -10819,10 +10819,10 @@
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B607" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C607">
         <v>8</v>
@@ -10836,10 +10836,10 @@
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B608" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C608">
         <v>10</v>
@@ -10853,10 +10853,10 @@
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B609" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C609">
         <v>12</v>
@@ -10870,10 +10870,10 @@
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B610" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C610">
         <v>5</v>
@@ -10887,10 +10887,10 @@
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B611" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C611">
         <v>8</v>
@@ -10904,10 +10904,10 @@
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B612" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C612">
         <v>10</v>
@@ -10921,10 +10921,10 @@
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B613" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C613">
         <v>12</v>
@@ -10938,10 +10938,10 @@
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B614" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C614">
         <v>5</v>
@@ -10955,10 +10955,10 @@
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B615" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C615">
         <v>8</v>
@@ -10972,10 +10972,10 @@
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B616" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C616">
         <v>10</v>
@@ -10989,10 +10989,10 @@
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B617" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C617">
         <v>12</v>
@@ -11006,10 +11006,10 @@
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B618" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C618">
         <v>5</v>
@@ -11023,10 +11023,10 @@
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B619" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C619">
         <v>8</v>
@@ -11040,10 +11040,10 @@
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B620" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C620">
         <v>10</v>
@@ -11057,10 +11057,10 @@
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B621" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C621">
         <v>12</v>
@@ -11074,10 +11074,10 @@
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B622" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C622">
         <v>5</v>
@@ -11091,10 +11091,10 @@
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B623" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C623">
         <v>8</v>
@@ -11108,10 +11108,10 @@
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B624" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C624">
         <v>10</v>
@@ -11125,10 +11125,10 @@
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B625" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C625">
         <v>12</v>
@@ -11142,10 +11142,10 @@
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B626" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C626">
         <v>5</v>
@@ -11159,10 +11159,10 @@
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B627" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C627">
         <v>8</v>
@@ -11176,10 +11176,10 @@
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B628" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C628">
         <v>10</v>
@@ -11193,10 +11193,10 @@
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B629" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C629">
         <v>12</v>
@@ -11210,10 +11210,10 @@
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B630" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C630">
         <v>5</v>
@@ -11227,10 +11227,10 @@
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B631" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C631">
         <v>8</v>
@@ -11244,10 +11244,10 @@
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B632" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C632">
         <v>10</v>
@@ -11261,10 +11261,10 @@
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B633" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C633">
         <v>12</v>
@@ -11278,10 +11278,10 @@
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B634" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C634">
         <v>5</v>
@@ -11295,10 +11295,10 @@
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B635" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C635">
         <v>8</v>
@@ -11312,10 +11312,10 @@
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B636" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C636">
         <v>10</v>
@@ -11329,10 +11329,10 @@
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B637" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C637">
         <v>12</v>
@@ -11346,10 +11346,10 @@
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
+        <v>28</v>
+      </c>
+      <c r="B638" t="s">
         <v>34</v>
-      </c>
-      <c r="B638" t="s">
-        <v>11</v>
       </c>
       <c r="C638">
         <v>5</v>
@@ -11363,10 +11363,10 @@
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
+        <v>28</v>
+      </c>
+      <c r="B639" t="s">
         <v>34</v>
-      </c>
-      <c r="B639" t="s">
-        <v>11</v>
       </c>
       <c r="C639">
         <v>8</v>
@@ -11380,10 +11380,10 @@
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
+        <v>28</v>
+      </c>
+      <c r="B640" t="s">
         <v>34</v>
-      </c>
-      <c r="B640" t="s">
-        <v>11</v>
       </c>
       <c r="C640">
         <v>10</v>
@@ -11397,10 +11397,10 @@
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
+        <v>28</v>
+      </c>
+      <c r="B641" t="s">
         <v>34</v>
-      </c>
-      <c r="B641" t="s">
-        <v>11</v>
       </c>
       <c r="C641">
         <v>12</v>
@@ -11414,10 +11414,10 @@
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B642" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C642">
         <v>5</v>
@@ -11431,10 +11431,10 @@
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B643" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C643">
         <v>8</v>
@@ -11448,10 +11448,10 @@
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B644" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C644">
         <v>10</v>
@@ -11465,10 +11465,10 @@
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B645" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C645">
         <v>12</v>
@@ -11482,10 +11482,10 @@
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B646" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C646">
         <v>5</v>
@@ -11499,10 +11499,10 @@
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B647" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C647">
         <v>8</v>
@@ -11516,10 +11516,10 @@
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B648" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C648">
         <v>10</v>
@@ -11533,10 +11533,10 @@
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B649" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C649">
         <v>12</v>
@@ -11550,10 +11550,10 @@
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B650" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C650">
         <v>5</v>
@@ -11567,10 +11567,10 @@
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B651" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C651">
         <v>8</v>
@@ -11584,10 +11584,10 @@
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B652" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C652">
         <v>10</v>
@@ -11601,10 +11601,10 @@
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B653" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C653">
         <v>12</v>
@@ -11618,10 +11618,10 @@
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B654" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C654">
         <v>5</v>
@@ -11635,10 +11635,10 @@
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B655" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C655">
         <v>8</v>
@@ -11652,10 +11652,10 @@
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B656" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C656">
         <v>10</v>
@@ -11669,10 +11669,10 @@
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B657" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C657">
         <v>12</v>
@@ -11686,10 +11686,10 @@
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B658" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C658">
         <v>5</v>
@@ -11703,10 +11703,10 @@
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B659" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C659">
         <v>8</v>
@@ -11720,10 +11720,10 @@
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B660" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C660">
         <v>10</v>
@@ -11737,10 +11737,10 @@
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B661" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C661">
         <v>12</v>
@@ -11754,10 +11754,10 @@
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B662" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C662">
         <v>5</v>
@@ -11771,10 +11771,10 @@
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B663" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C663">
         <v>8</v>
@@ -11788,10 +11788,10 @@
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B664" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C664">
         <v>10</v>
@@ -11805,10 +11805,10 @@
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B665" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C665">
         <v>12</v>
@@ -11822,10 +11822,10 @@
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B666" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C666">
         <v>5</v>
@@ -11839,10 +11839,10 @@
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B667" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C667">
         <v>8</v>
@@ -11856,10 +11856,10 @@
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B668" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C668">
         <v>10</v>
@@ -11873,10 +11873,10 @@
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B669" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C669">
         <v>12</v>
@@ -11890,10 +11890,10 @@
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
+        <v>29</v>
+      </c>
+      <c r="B670" t="s">
         <v>35</v>
-      </c>
-      <c r="B670" t="s">
-        <v>12</v>
       </c>
       <c r="C670">
         <v>5</v>
@@ -11907,10 +11907,10 @@
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
+        <v>29</v>
+      </c>
+      <c r="B671" t="s">
         <v>35</v>
-      </c>
-      <c r="B671" t="s">
-        <v>12</v>
       </c>
       <c r="C671">
         <v>8</v>
@@ -11924,10 +11924,10 @@
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
+        <v>29</v>
+      </c>
+      <c r="B672" t="s">
         <v>35</v>
-      </c>
-      <c r="B672" t="s">
-        <v>12</v>
       </c>
       <c r="C672">
         <v>10</v>
@@ -11941,10 +11941,10 @@
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
+        <v>29</v>
+      </c>
+      <c r="B673" t="s">
         <v>35</v>
-      </c>
-      <c r="B673" t="s">
-        <v>12</v>
       </c>
       <c r="C673">
         <v>12</v>
@@ -11958,10 +11958,10 @@
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B674" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C674">
         <v>5</v>
@@ -11975,10 +11975,10 @@
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B675" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C675">
         <v>8</v>
@@ -11992,10 +11992,10 @@
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B676" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C676">
         <v>10</v>
@@ -12009,10 +12009,10 @@
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B677" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C677">
         <v>12</v>
@@ -12026,10 +12026,10 @@
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
+        <v>30</v>
+      </c>
+      <c r="B678" t="s">
         <v>36</v>
-      </c>
-      <c r="B678" t="s">
-        <v>7</v>
       </c>
       <c r="C678">
         <v>5</v>
@@ -12043,10 +12043,10 @@
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
+        <v>30</v>
+      </c>
+      <c r="B679" t="s">
         <v>36</v>
-      </c>
-      <c r="B679" t="s">
-        <v>7</v>
       </c>
       <c r="C679">
         <v>8</v>
@@ -12060,10 +12060,10 @@
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
+        <v>30</v>
+      </c>
+      <c r="B680" t="s">
         <v>36</v>
-      </c>
-      <c r="B680" t="s">
-        <v>7</v>
       </c>
       <c r="C680">
         <v>10</v>
@@ -12077,10 +12077,10 @@
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
+        <v>30</v>
+      </c>
+      <c r="B681" t="s">
         <v>36</v>
-      </c>
-      <c r="B681" t="s">
-        <v>7</v>
       </c>
       <c r="C681">
         <v>12</v>
@@ -12094,10 +12094,10 @@
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B682" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C682">
         <v>5</v>
@@ -12111,10 +12111,10 @@
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B683" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C683">
         <v>8</v>
@@ -12128,10 +12128,10 @@
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B684" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C684">
         <v>10</v>
@@ -12145,10 +12145,10 @@
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B685" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C685">
         <v>12</v>
@@ -12162,10 +12162,10 @@
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B686" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C686">
         <v>5</v>
@@ -12179,10 +12179,10 @@
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B687" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C687">
         <v>8</v>
@@ -12196,10 +12196,10 @@
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B688" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C688">
         <v>10</v>
@@ -12213,10 +12213,10 @@
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B689" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C689">
         <v>12</v>
@@ -12230,10 +12230,10 @@
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B690" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C690">
         <v>5</v>
@@ -12247,10 +12247,10 @@
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B691" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C691">
         <v>8</v>
@@ -12264,10 +12264,10 @@
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B692" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C692">
         <v>10</v>
@@ -12281,10 +12281,10 @@
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B693" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C693">
         <v>12</v>
@@ -12298,10 +12298,10 @@
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B694" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C694">
         <v>5</v>
@@ -12315,10 +12315,10 @@
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B695" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C695">
         <v>8</v>
@@ -12332,10 +12332,10 @@
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B696" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C696">
         <v>10</v>
@@ -12349,10 +12349,10 @@
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B697" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C697">
         <v>12</v>
@@ -12366,10 +12366,10 @@
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B698" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C698">
         <v>5</v>
@@ -12383,10 +12383,10 @@
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B699" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C699">
         <v>8</v>
@@ -12400,10 +12400,10 @@
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B700" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C700">
         <v>10</v>
@@ -12417,10 +12417,10 @@
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B701" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C701">
         <v>12</v>
